--- a/game/resultspace/ФОН/ТР ФОН.xlsx
+++ b/game/resultspace/ФОН/ТР ФОН.xlsx
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="26" t="n">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="L11" s="26" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R11" s="28" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="26" t="n">
-        <v>388</v>
+        <v>483</v>
       </c>
       <c r="L12" s="26" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="26" t="n">
-        <v>511</v>
+        <v>561</v>
       </c>
       <c r="L13" s="26" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R13" s="28" t="n">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="26" t="n">
-        <v>664</v>
+        <v>560</v>
       </c>
       <c r="L14" s="26" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="R14" s="28" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="26" t="n">
-        <v>509</v>
+        <v>481</v>
       </c>
       <c r="L15" s="26" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="R15" s="28" t="n">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="26" t="n">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="L16" s="26" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R16" s="28" t="n">
         <v>0</v>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="26" t="n">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="L17" s="26" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="27" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R17" s="28" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="24" t="n">
-        <v>264</v>
+        <v>686</v>
       </c>
       <c r="L18" s="24" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R18" s="24" t="n">
         <v>0</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="24" t="n">
-        <v>578</v>
+        <v>254</v>
       </c>
       <c r="L19" s="24" t="inlineStr">
         <is>
@@ -1922,19 +1922,19 @@
       </c>
       <c r="M19" s="24" t="inlineStr"/>
       <c r="N19" s="24" t="n">
-        <v>262.6655883789062</v>
+        <v>315.0965881347656</v>
       </c>
       <c r="O19" s="24" t="n">
-        <v>262.6688537597656</v>
+        <v>315.0999755859375</v>
       </c>
       <c r="P19" s="24" t="n">
-        <v>1.24019631239968e-05</v>
+        <v>1.076053466845584e-05</v>
       </c>
       <c r="Q19" s="24" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="R19" s="24" t="n">
-        <v>231.1051025390625</v>
+        <v>230.5140991210937</v>
       </c>
       <c r="S19" s="24" t="n">
         <v>104</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="24" t="n">
-        <v>697</v>
+        <v>605</v>
       </c>
       <c r="L20" s="24" t="inlineStr">
         <is>
@@ -1994,19 +1994,19 @@
       </c>
       <c r="M20" s="24" t="inlineStr"/>
       <c r="N20" s="24" t="n">
-        <v>48.58327102661133</v>
+        <v>55.49209976196289</v>
       </c>
       <c r="O20" s="24" t="n">
-        <v>48.58327102661133</v>
+        <v>55.49209976196289</v>
       </c>
       <c r="P20" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q20" s="24" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R20" s="24" t="n">
-        <v>226.196517944336</v>
+        <v>226.1971588134766</v>
       </c>
       <c r="S20" s="24" t="n">
         <v>104</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="24" t="n">
-        <v>488</v>
+        <v>687</v>
       </c>
       <c r="L21" s="24" t="inlineStr">
         <is>
@@ -2066,10 +2066,10 @@
       </c>
       <c r="M21" s="24" t="inlineStr"/>
       <c r="N21" s="24" t="n">
-        <v>90.5435791015625</v>
+        <v>158.9368438720703</v>
       </c>
       <c r="O21" s="24" t="n">
-        <v>90.5435791015625</v>
+        <v>158.9368438720703</v>
       </c>
       <c r="P21" s="24" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>14</v>
       </c>
       <c r="R21" s="24" t="n">
-        <v>224.4220275878906</v>
+        <v>236.1507873535156</v>
       </c>
       <c r="S21" s="24" t="n">
         <v>104</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="24" t="n">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="L22" s="24" t="inlineStr">
         <is>
@@ -2138,19 +2138,19 @@
       </c>
       <c r="M22" s="24" t="inlineStr"/>
       <c r="N22" s="24" t="n">
-        <v>71.87432861328125</v>
+        <v>133.3096160888672</v>
       </c>
       <c r="O22" s="24" t="n">
-        <v>71.87432861328125</v>
+        <v>133.3096160888672</v>
       </c>
       <c r="P22" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q22" s="24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R22" s="24" t="n">
-        <v>223.5727386474609</v>
+        <v>234.9153289794922</v>
       </c>
       <c r="S22" s="24" t="n">
         <v>104</v>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="24" t="n">
-        <v>484</v>
+        <v>328</v>
       </c>
       <c r="L23" s="24" t="inlineStr">
         <is>
@@ -2210,19 +2210,19 @@
       </c>
       <c r="M23" s="24" t="inlineStr"/>
       <c r="N23" s="24" t="n">
-        <v>111.7594909667969</v>
+        <v>153.6107940673828</v>
       </c>
       <c r="O23" s="24" t="n">
-        <v>111.7594909667969</v>
+        <v>153.6107940673828</v>
       </c>
       <c r="P23" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q23" s="24" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="R23" s="24" t="n">
-        <v>236.9685211181641</v>
+        <v>247.2615203857422</v>
       </c>
       <c r="S23" s="24" t="n">
         <v>104</v>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="24" t="n">
-        <v>690</v>
+        <v>339</v>
       </c>
       <c r="L24" s="24" t="inlineStr">
         <is>
@@ -2282,19 +2282,19 @@
       </c>
       <c r="M24" s="24" t="inlineStr"/>
       <c r="N24" s="24" t="n">
-        <v>228.1489868164062</v>
+        <v>329.2080993652344</v>
       </c>
       <c r="O24" s="24" t="n">
-        <v>228.153335571289</v>
+        <v>329.2126159667969</v>
       </c>
       <c r="P24" s="24" t="n">
-        <v>1.908250627888068e-05</v>
+        <v>1.366949226346585e-05</v>
       </c>
       <c r="Q24" s="24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R24" s="24" t="n">
-        <v>230.513687133789</v>
+        <v>229.3236541748047</v>
       </c>
       <c r="S24" s="24" t="n">
         <v>104</v>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="24" t="n">
-        <v>516</v>
+        <v>559</v>
       </c>
       <c r="L25" s="24" t="inlineStr">
         <is>
@@ -2354,19 +2354,19 @@
       </c>
       <c r="M25" s="24" t="inlineStr"/>
       <c r="N25" s="24" t="n">
-        <v>105.2966156005859</v>
+        <v>161.8557739257812</v>
       </c>
       <c r="O25" s="24" t="n">
-        <v>105.2966156005859</v>
+        <v>161.8557739257812</v>
       </c>
       <c r="P25" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q25" s="24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R25" s="24" t="n">
-        <v>228.0050964355469</v>
+        <v>229.9936981201172</v>
       </c>
       <c r="S25" s="24" t="n">
         <v>104</v>
